--- a/src/main/java/testdata/SalesForce/SalesForceTestData.xlsx
+++ b/src/main/java/testdata/SalesForce/SalesForceTestData.xlsx
@@ -1,19 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anilkumarb\Desktop\Frameworks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF47D18-E0CA-48E2-AF13-55684DEB8CB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" tabRatio="1000" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8985" tabRatio="1000"/>
   </bookViews>
   <sheets>
-    <sheet name="SalesforceLogin" sheetId="9" r:id="rId1"/>
+    <sheet name="RevoltadminloginData" sheetId="9" r:id="rId1"/>
     <sheet name="GmailLogin" sheetId="8" state="hidden" r:id="rId2"/>
     <sheet name="outlookLoginData" sheetId="58" r:id="rId3"/>
     <sheet name="ITSDispatchLoginData" sheetId="48" state="hidden" r:id="rId4"/>
@@ -30,49 +24,45 @@
     <sheet name="HandshakeCarrierLogindata" sheetId="56" state="hidden" r:id="rId15"/>
     <sheet name="HandshakeBrokerLogindata" sheetId="57" state="hidden" r:id="rId16"/>
     <sheet name="BrokerLoginData" sheetId="1" state="hidden" r:id="rId17"/>
-    <sheet name="SalesForceAccountCreation" sheetId="4" r:id="rId18"/>
-    <sheet name="LeadCreation" sheetId="61" r:id="rId19"/>
-    <sheet name="LeadCreation1" sheetId="63" state="hidden" r:id="rId20"/>
-    <sheet name="BrokerDuplicateEmail" sheetId="47" state="hidden" r:id="rId21"/>
-    <sheet name="BrokerUpdatePaymentData" sheetId="24" state="hidden" r:id="rId22"/>
-    <sheet name="BrokerNewPaymentData" sheetId="7" state="hidden" r:id="rId23"/>
-    <sheet name="BrokerUpdatedPaymentData" sheetId="49" state="hidden" r:id="rId24"/>
-    <sheet name="BrokerPaymentDataforUnmatchedCr" sheetId="10" state="hidden" r:id="rId25"/>
-    <sheet name="ContactCreation" sheetId="59" r:id="rId26"/>
-    <sheet name="NewQuote" sheetId="60" r:id="rId27"/>
-    <sheet name="BrokerBankingData" sheetId="15" state="hidden" r:id="rId28"/>
-    <sheet name="BrokerForgotPassword" sheetId="28" state="hidden" r:id="rId29"/>
-    <sheet name="BrokerPaymentHistorydata" sheetId="30" state="hidden" r:id="rId30"/>
-    <sheet name="BrokerChangePasswordData" sheetId="27" state="hidden" r:id="rId31"/>
-    <sheet name="CarrierDuplicateEmail" sheetId="46" state="hidden" r:id="rId32"/>
-    <sheet name="CarrierChangePasswordData" sheetId="36" state="hidden" r:id="rId33"/>
-    <sheet name="CarrierForgotPasswordData" sheetId="37" state="hidden" r:id="rId34"/>
-    <sheet name="CarrierLoginData" sheetId="5" state="hidden" r:id="rId35"/>
-    <sheet name="CarrierUpdatePaymentData" sheetId="50" state="hidden" r:id="rId36"/>
-    <sheet name="RTFLogindata" sheetId="41" state="hidden" r:id="rId37"/>
-    <sheet name="CarrierLoginAccountModuleData" sheetId="38" state="hidden" r:id="rId38"/>
-    <sheet name="CarrierlockedaccountAdminUnlock" sheetId="19" state="hidden" r:id="rId39"/>
-    <sheet name="carrierparentchilddata" sheetId="20" state="hidden" r:id="rId40"/>
-    <sheet name="carrierresetpassworddata" sheetId="21" state="hidden" r:id="rId41"/>
-    <sheet name="CarrierFuelcardaccountNumbers" sheetId="13" state="hidden" r:id="rId42"/>
-    <sheet name="BulkUploadPaymentsmatched" sheetId="22" state="hidden" r:id="rId43"/>
-    <sheet name="BulkUploadPaymentsUnmatched" sheetId="23" state="hidden" r:id="rId44"/>
-    <sheet name="CcarrierMatchedPayByCheckPayMNW" sheetId="14" state="hidden" r:id="rId45"/>
-    <sheet name="CarrierRegisterCanada" sheetId="12" state="hidden" r:id="rId46"/>
-    <sheet name="CarrierPaidTabData" sheetId="17" state="hidden" r:id="rId47"/>
-    <sheet name="CarrierBankingData" sheetId="16" state="hidden" r:id="rId48"/>
-    <sheet name="CarrierPaymentHistorydata" sheetId="29" state="hidden" r:id="rId49"/>
-    <sheet name="CarrierSchedulePaymentTabData" sheetId="25" state="hidden" r:id="rId50"/>
-    <sheet name="CarrierBankAccountDetails" sheetId="53" state="hidden" r:id="rId51"/>
-    <sheet name="BankAccountDetailsForCopyPaste" sheetId="40" state="hidden" r:id="rId52"/>
-    <sheet name="CreditAmount" sheetId="42" state="hidden" r:id="rId53"/>
-    <sheet name="ExtendedCreditAmount" sheetId="55" state="hidden" r:id="rId54"/>
-    <sheet name="RTFLogin" sheetId="45" state="hidden" r:id="rId55"/>
-    <sheet name="LoginHandshakewithRTF_CarrierDa" sheetId="43" state="hidden" r:id="rId56"/>
-    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId57"/>
-    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId58"/>
+    <sheet name="LeadCreation1" sheetId="63" state="hidden" r:id="rId18"/>
+    <sheet name="BrokerDuplicateEmail" sheetId="47" state="hidden" r:id="rId19"/>
+    <sheet name="BrokerUpdatePaymentData" sheetId="24" state="hidden" r:id="rId20"/>
+    <sheet name="BrokerNewPaymentData" sheetId="7" state="hidden" r:id="rId21"/>
+    <sheet name="BrokerUpdatedPaymentData" sheetId="49" state="hidden" r:id="rId22"/>
+    <sheet name="BrokerPaymentDataforUnmatchedCr" sheetId="10" state="hidden" r:id="rId23"/>
+    <sheet name="BrokerBankingData" sheetId="15" state="hidden" r:id="rId24"/>
+    <sheet name="BrokerForgotPassword" sheetId="28" state="hidden" r:id="rId25"/>
+    <sheet name="BrokerPaymentHistorydata" sheetId="30" state="hidden" r:id="rId26"/>
+    <sheet name="BrokerChangePasswordData" sheetId="27" state="hidden" r:id="rId27"/>
+    <sheet name="CarrierDuplicateEmail" sheetId="46" state="hidden" r:id="rId28"/>
+    <sheet name="CarrierChangePasswordData" sheetId="36" state="hidden" r:id="rId29"/>
+    <sheet name="CarrierForgotPasswordData" sheetId="37" state="hidden" r:id="rId30"/>
+    <sheet name="CarrierLoginData" sheetId="5" state="hidden" r:id="rId31"/>
+    <sheet name="CarrierUpdatePaymentData" sheetId="50" state="hidden" r:id="rId32"/>
+    <sheet name="RTFLogindata" sheetId="41" state="hidden" r:id="rId33"/>
+    <sheet name="CarrierLoginAccountModuleData" sheetId="38" state="hidden" r:id="rId34"/>
+    <sheet name="CarrierlockedaccountAdminUnlock" sheetId="19" state="hidden" r:id="rId35"/>
+    <sheet name="carrierparentchilddata" sheetId="20" state="hidden" r:id="rId36"/>
+    <sheet name="carrierresetpassworddata" sheetId="21" state="hidden" r:id="rId37"/>
+    <sheet name="CarrierFuelcardaccountNumbers" sheetId="13" state="hidden" r:id="rId38"/>
+    <sheet name="BulkUploadPaymentsmatched" sheetId="22" state="hidden" r:id="rId39"/>
+    <sheet name="BulkUploadPaymentsUnmatched" sheetId="23" state="hidden" r:id="rId40"/>
+    <sheet name="CcarrierMatchedPayByCheckPayMNW" sheetId="14" state="hidden" r:id="rId41"/>
+    <sheet name="CarrierRegisterCanada" sheetId="12" state="hidden" r:id="rId42"/>
+    <sheet name="CarrierPaidTabData" sheetId="17" state="hidden" r:id="rId43"/>
+    <sheet name="CarrierBankingData" sheetId="16" state="hidden" r:id="rId44"/>
+    <sheet name="CarrierPaymentHistorydata" sheetId="29" state="hidden" r:id="rId45"/>
+    <sheet name="CarrierSchedulePaymentTabData" sheetId="25" state="hidden" r:id="rId46"/>
+    <sheet name="CarrierBankAccountDetails" sheetId="53" state="hidden" r:id="rId47"/>
+    <sheet name="BankAccountDetailsForCopyPaste" sheetId="40" state="hidden" r:id="rId48"/>
+    <sheet name="CreditAmount" sheetId="42" state="hidden" r:id="rId49"/>
+    <sheet name="ExtendedCreditAmount" sheetId="55" state="hidden" r:id="rId50"/>
+    <sheet name="RTFLogin" sheetId="45" state="hidden" r:id="rId51"/>
+    <sheet name="LoginHandshakewithRTF_CarrierDa" sheetId="43" state="hidden" r:id="rId52"/>
+    <sheet name="Verificare" sheetId="2" state="hidden" r:id="rId53"/>
+    <sheet name="tasks" sheetId="3" state="hidden" r:id="rId54"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -81,42 +71,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Yurii Merviak</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{44300FB3-8245-4534-9071-F06903D54E19}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yurii Merviak:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="266">
   <si>
     <t>Username</t>
   </si>
@@ -865,39 +821,6 @@
     <t>NP123456789</t>
   </si>
   <si>
-    <t>BillingStreet</t>
-  </si>
-  <si>
-    <t>BillingCity</t>
-  </si>
-  <si>
-    <t>BillingStateProvince</t>
-  </si>
-  <si>
-    <t>BillingZipPostalCode</t>
-  </si>
-  <si>
-    <t>BillingCountry</t>
-  </si>
-  <si>
-    <t>DispatchName</t>
-  </si>
-  <si>
-    <t>DispatchPhone</t>
-  </si>
-  <si>
-    <t>BrokerMC</t>
-  </si>
-  <si>
-    <t>CarrierMC</t>
-  </si>
-  <si>
-    <t>DOT</t>
-  </si>
-  <si>
-    <t>BrokerDOT</t>
-  </si>
-  <si>
     <t>912 NW Hwy</t>
   </si>
   <si>
@@ -928,27 +851,12 @@
     <t>kumar</t>
   </si>
   <si>
-    <t>an</t>
-  </si>
-  <si>
     <t>TestAuto11</t>
   </si>
   <si>
     <t>contact[uniqueID]@truckstop.com</t>
   </si>
   <si>
-    <t>CVV</t>
-  </si>
-  <si>
-    <t>4111111111111111</t>
-  </si>
-  <si>
-    <t>848</t>
-  </si>
-  <si>
-    <t>sftestingnew@truckstop.com</t>
-  </si>
-  <si>
     <t>Street</t>
   </si>
   <si>
@@ -958,20 +866,20 @@
     <t>ZipPostalCode</t>
   </si>
   <si>
-    <t>Account20190115231857</t>
-  </si>
-  <si>
-    <t>Password123!</t>
+    <t>anilmanu29</t>
+  </si>
+  <si>
+    <t>Password123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1019,19 +927,6 @@
       <sz val="11"/>
       <color rgb="FF172B4D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -1283,16 +1178,15 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1350,7 +1244,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1366,8 +1260,8 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1431,7 +1325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1466,7 +1360,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1643,18 +1537,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1664,31 +1558,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>281</v>
+      <c r="A2" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Password@123" xr:uid="{E08CC342-41FB-48A8-8728-240C68324F42}"/>
+    <hyperlink ref="B2" r:id="rId1" display="Password@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D59054-07F3-4D98-89C6-3D3B72291E7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1721,32 +1615,32 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>213</v>
       </c>
       <c r="D2" s="4">
         <v>100</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>209</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{C9DB1B83-8328-4146-A92D-8FD931C41D9D}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1766,10 +1660,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1825,14 +1719,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1851,10 +1745,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>239</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1874,32 +1768,32 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="48">
         <v>120.98</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="56" t="s">
         <v>241</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{45D34579-C5E1-482B-AD14-15C0A5B6B9DB}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{728B5BD3-41C7-4FF4-8477-A66DCF830B53}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1907,7 +1801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1925,13 +1819,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>171</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1948,32 +1842,32 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="48">
         <v>123.67</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="56" t="s">
         <v>243</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D90855FC-2247-47E7-85DA-99E1D1D05B7F}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{8A5084F2-9BE5-447D-BE63-6BF3FDF16B88}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1981,7 +1875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2000,13 +1894,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>171</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2023,32 +1917,32 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="48">
         <v>456.78</v>
       </c>
-      <c r="F2" s="58">
+      <c r="F2" s="57">
         <v>789654123</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="57" t="s">
         <v>248</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{BC8E8D55-2693-4593-B635-67CDDE4AE97D}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{3F3C636D-8FEF-4B8C-AEEF-58DB89578FA4}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -2056,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED729B66-0A87-4107-B23B-33252E36BD91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2070,31 +1964,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{4781DA1A-6424-483A-878E-C1124701B26A}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92269024-4481-400C-8D7F-BC60F056B751}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2108,31 +2002,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{DA813998-C10E-45EC-AD16-E22F40C0C23F}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2146,24 +2040,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C3CF626B-F5B7-45E0-8DCE-E5CBDDA301C3}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2171,898 +2065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="35.75" customWidth="1"/>
-    <col min="4" max="4" width="36.375" customWidth="1"/>
-    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="11" width="15.25" customWidth="1"/>
-    <col min="12" max="12" width="14.75" customWidth="1"/>
-    <col min="13" max="13" width="15.875" customWidth="1"/>
-    <col min="14" max="14" width="15.25" customWidth="1"/>
-    <col min="15" max="15" width="16.25" customWidth="1"/>
-    <col min="16" max="16" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="4" customFormat="1">
-      <c r="A2" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="4">
-        <v>60022</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="I2" s="4">
-        <v>3838484991</v>
-      </c>
-      <c r="J2" s="5">
-        <v>388499</v>
-      </c>
-      <c r="K2" s="47">
-        <v>9292999</v>
-      </c>
-      <c r="L2" s="4">
-        <v>9292991</v>
-      </c>
-      <c r="M2" s="4">
-        <v>833939</v>
-      </c>
-      <c r="N2" s="4">
-        <v>928822</v>
-      </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DAE8BF8-61C5-4EF4-B348-251B39A4F53D}">
-  <dimension ref="A1:K20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="K1" s="48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J2" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K2" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E3" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F4" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E5" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K6" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E7" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E8" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H8" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E9" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E10" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K10" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E11" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G11" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H11" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K11" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H12" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J12" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K12" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E13" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J13" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K13" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E14" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J14" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K14" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E15" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G15" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K15" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J16" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K16" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E17" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J17" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K17" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E18" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J18" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K18" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E19" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F19" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G19" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H19" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I19" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J19" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K19" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J20" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K20" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I1" r:id="rId1" display="testauto5@truckstop.com" xr:uid="{26CCAC54-F02F-4395-BD81-F4A47F619B7D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>262</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844553D5-1DD5-4D80-BE52-066054BEAED6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3082,715 +2085,715 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="K1" s="48" t="s">
+      <c r="J1" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="K1" s="47" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="48">
+        <v>60022</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="J2" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E3" s="48">
         <v>60022</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F3" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H2" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J2" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K2" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B3" s="49" t="s">
+      <c r="G3" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I3" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="J3" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D4" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E4" s="48">
         <v>60022</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F4" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G3" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K3" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B4" s="49" t="s">
+      <c r="G4" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I4" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="J4" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E5" s="48">
         <v>60022</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F5" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G4" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I4" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" s="49" t="s">
+      <c r="G5" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I5" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="J5" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E6" s="48">
         <v>60022</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F6" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G5" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B6" s="49" t="s">
+      <c r="G6" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H6" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I6" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="J6" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E7" s="48">
         <v>60022</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F7" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G6" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K6" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B7" s="49" t="s">
+      <c r="G7" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I7" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="J7" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E8" s="48">
         <v>60022</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F8" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G7" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I7" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B8" s="49" t="s">
+      <c r="G8" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I8" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="J8" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D9" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E9" s="48">
         <v>60022</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F9" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G8" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H8" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I8" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K8" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B9" s="49" t="s">
+      <c r="G9" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I9" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="J9" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D10" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E10" s="48">
         <v>60022</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F10" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G9" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I9" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K9" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B10" s="49" t="s">
+      <c r="G10" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I10" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="J10" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D11" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E11" s="48">
         <v>60022</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F11" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G10" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K10" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B11" s="49" t="s">
+      <c r="G11" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I11" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="J11" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D12" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E12" s="48">
         <v>60022</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F12" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G11" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H11" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K11" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" s="49" t="s">
+      <c r="G12" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I12" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="J12" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D13" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E13" s="48">
         <v>60022</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F13" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G12" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H12" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J12" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K12" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B13" s="49" t="s">
+      <c r="G13" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I13" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="J13" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D14" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E14" s="48">
         <v>60022</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F14" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G13" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J13" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K13" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B14" s="49" t="s">
+      <c r="G14" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I14" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="J14" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D15" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E15" s="48">
         <v>60022</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F15" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G14" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J14" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K14" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B15" s="49" t="s">
+      <c r="G15" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H15" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I15" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="J15" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D16" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E16" s="48">
         <v>60022</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F16" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G15" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H15" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K15" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B16" s="49" t="s">
+      <c r="G16" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I16" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="J16" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D17" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="49">
+      <c r="E17" s="48">
         <v>60022</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F17" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G16" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I16" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J16" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K16" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B17" s="49" t="s">
+      <c r="G17" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I17" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="J17" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D18" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E18" s="48">
         <v>60022</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F18" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G17" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I17" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J17" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K17" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B18" s="49" t="s">
+      <c r="G18" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I18" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="J18" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D19" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E19" s="48">
         <v>60022</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F19" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G18" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J18" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K18" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B19" s="49" t="s">
+      <c r="G19" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I19" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="J19" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="48" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D20" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="E19" s="49">
+      <c r="E20" s="48">
         <v>60022</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F20" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="G19" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H19" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I19" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J19" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K19" s="49" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="B20" s="49" t="s">
+      <c r="G20" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="H20" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="I20" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C20" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" s="49">
-        <v>60022</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="J20" s="49" t="s">
-        <v>266</v>
-      </c>
-      <c r="K20" s="49" t="s">
-        <v>267</v>
+      <c r="J20" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I1" r:id="rId1" display="testauto5@truckstop.com" xr:uid="{645CB8E8-DC0A-489A-9996-BD98F451236D}"/>
+    <hyperlink ref="I1" r:id="rId1" display="testauto5@truckstop.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B1083F-2C63-4FCE-9825-F3543005262F}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3807,29 +2810,64 @@
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>203</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{B272F495-6FA4-4F45-A24C-2B06A59FE600}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3937,16 +2975,16 @@
       <c r="A2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>456789</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>101</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -3955,83 +2993,83 @@
       <c r="G2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="14" t="b">
+      <c r="J2" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="X2" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Y2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AB2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AC2" s="13" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4044,60 +3082,60 @@
     <col min="2" max="3" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1">
+      <c r="A1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="48">
         <v>930</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="48">
         <v>931</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{6BD736EF-0A9A-4295-8C91-8829EF333F40}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{E95E0960-C996-46E2-9866-0BD7AB7CC179}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F80A14-7D04-448E-8D00-2F385D5F98CA}">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4143,22 +3181,22 @@
       <c r="A2" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>192</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>192</v>
       </c>
       <c r="E2" s="4">
         <v>1234587</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>140</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -4167,14 +3205,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{74225089-1083-4CA4-873D-523BC11F8FAF}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4189,219 +3227,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="48">
         <v>123.45</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>295676689</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="48">
         <v>123.67</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>295676689</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="48">
         <v>123.89</v>
       </c>
-      <c r="E4" s="49" t="s">
+      <c r="E4" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>295676689</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="48">
         <v>124</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>295676689</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{8AC65AD8-4A8D-4D4F-9C74-FE1190EF53D3}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{DE157CF1-E748-45D1-850E-D0400BA4C740}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{735ACE70-170A-4355-8049-BF7657C35320}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{77462A2A-ADA7-44EA-B914-6B9DCF18C55E}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0617D5D-1DEF-46F2-807B-FFF16D48D842}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="49" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>272</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>272</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" display="testauto5@truckstop.com" xr:uid="{2FE4D5CF-9302-492A-AF9C-D386C2F74B88}"/>
-    <hyperlink ref="E1" r:id="rId2" display="testauto5@truckstop.com" xr:uid="{92648C9B-7CF5-498C-ADE7-E27CF37F42D4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA49411-89C6-4E44-A733-5493C9E999B4}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4449,8 +3386,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4466,16 +3403,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4495,56 +3432,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-1200-000002000000}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-1200-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A513A251-71E7-45AA-8AE2-E0BD74468884}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="49" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>264</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{771DD507-7B7C-4487-8D54-2F3C9743DED5}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4561,42 +3460,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A2" s="40">
+      <c r="A2" s="39">
         <v>100</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>157</v>
       </c>
       <c r="C2" s="4">
         <v>8564</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="39">
         <v>1000</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4606,8 +3505,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4623,16 +3522,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4652,18 +3551,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8498A2-173A-4149-92D9-3958E39CAEBC}">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4685,26 +3584,25 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>202</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{154F057B-201F-4E7E-8E4E-91C54C91AB1E}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{95CCD7A8-454A-49D7-9D4E-0A8041E9B3D6}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4720,44 +3618,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>231</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{5A92F491-77A0-4C6B-B4A3-2BDA0D7E195B}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{4515284A-FFED-4FEB-A06D-C2A7917388C8}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="48" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4772,16 +3708,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4801,15 +3737,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-1400-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4822,7 +3758,7 @@
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="7" customFormat="1">
+    <row r="1" spans="1:2" s="6" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -4831,23 +3767,23 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>233</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{5A879D72-B638-4C26-B6F0-08F56F24285F}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B750627-6F23-4CDD-9F53-6ABD7DC947B5}">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4893,22 +3829,22 @@
       <c r="A2" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>193</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>193</v>
       </c>
       <c r="E2" s="4">
         <v>1234587</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>140</v>
       </c>
       <c r="H2" s="4" t="s">
@@ -4917,14 +3853,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{67AD34C6-FFE8-4373-A554-4564CD18D0E8}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4946,7 +3882,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>184</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4959,8 +3895,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4990,29 +3926,29 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="48">
         <v>8085</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="48">
         <v>111111111</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{77B6D251-A399-4301-8FE8-814CDA5D5105}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5037,70 +3973,27 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6C7F39C2-C6D1-4CF0-A27A-4AF213811631}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{24D5BAE4-B4A6-407B-A032-E9E9BA5E812A}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E68DCD-E1C6-4AD9-B92C-49D8D397AE38}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5130,30 +4023,30 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>237</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{179992F2-1670-4B17-B082-015BD7D75FE8}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{D59D87A4-DF72-4075-B8A6-4058F3F60BBB}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5183,32 +4076,32 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>232</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{3CE4B82D-0000-4BB3-AF56-92FD2D52C3E6}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{4E515459-F96C-4BB5-953E-9BD98326FF44}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{4EBE52F9-488E-44A2-9CD7-B84F0CFFCF3E}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{8F25B804-3133-46C9-AD4A-72C432BA3392}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5222,10 +4115,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5243,8 +4136,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5278,8 +4171,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5313,8 +4249,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5332,60 +4268,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="51" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="53" customFormat="1">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:9" s="52" customFormat="1">
+      <c r="A2" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="53">
         <v>60101</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="54">
+      <c r="H2" s="53">
         <v>6305551234</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="53" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5394,8 +4330,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5487,10 +4423,10 @@
       <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>216</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -5520,7 +4456,7 @@
       <c r="N2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="10">
         <v>374657000000</v>
       </c>
       <c r="P2" s="4" t="s">
@@ -5535,24 +4471,24 @@
       <c r="S2" s="4">
         <v>102101645</v>
       </c>
-      <c r="T2" s="11">
+      <c r="T2" s="10">
         <v>456457000000</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="10">
         <v>456457000000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="carrierCa@loadpaytest.truckstop.com" xr:uid="{00000000-0004-0000-2100-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" display="carrierCa@loadpaytest.truckstop.com" xr:uid="{2C554CBC-9417-4A7B-9F96-49926B59B472}"/>
+    <hyperlink ref="D2" r:id="rId1" display="carrierCa@loadpaytest.truckstop.com"/>
+    <hyperlink ref="E2" r:id="rId2" display="carrierCa@loadpaytest.truckstop.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5590,37 +4526,37 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="48">
         <v>100</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="48" t="s">
         <v>236</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Password@123" xr:uid="{00000000-0004-0000-2200-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="carrierCVK070618X5@loadpaytest.truckstop.com" xr:uid="{00000000-0004-0000-2200-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="Password@123"/>
+    <hyperlink ref="A2" r:id="rId2" display="carrierCVK070618X5@loadpaytest.truckstop.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5668,8 +4604,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5687,42 +4623,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="36">
+      <c r="A2" s="35">
         <v>100</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="36">
         <v>241</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="37" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5732,60 +4668,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="2" width="38.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-1300-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5823,10 +4707,10 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -5844,15 +4728,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-2500-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-2500-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE248A60-C3BD-412F-B50B-074B69CAE368}">
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5870,55 +4754,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="42">
         <v>122105155</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="42">
         <v>123456789</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="42">
         <v>123456789</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{90C75056-5BCA-4409-B1AB-2F3D669B1832}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5936,42 +4820,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="42">
         <v>122105155</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="42">
         <v>123456789</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="42">
         <v>123456789</v>
       </c>
     </row>
@@ -5981,8 +4865,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5995,12 +4879,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="49">
+      <c r="A2" s="48">
         <v>999999</v>
       </c>
     </row>
@@ -6009,8 +4893,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942593C2-87C0-411A-A0ED-FC6C1DB0BFE9}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="2" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6023,12 +4959,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="49">
+      <c r="A2" s="48">
         <v>99999</v>
       </c>
     </row>
@@ -6037,8 +4973,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6073,8 +5009,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6084,18 +5020,18 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6105,8 +5041,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6137,16 +5073,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="mailto:Admin1@calpion.com" xr:uid="{00000000-0004-0000-2900-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="mailto:Admin1@calpion.com" xr:uid="{00000000-0004-0000-2900-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="mailto:Admin1@calpion.com"/>
+    <hyperlink ref="A2" r:id="rId2" display="mailto:Admin1@calpion.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6158,7 +5094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40E438A-E780-41FE-A9D6-473CFD9403B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6173,24 +5109,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6200,7 +5136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6224,83 +5160,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="31">
+      <c r="A2" s="30">
         <v>32002</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="L2" s="22" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="23"/>
-      <c r="B3" s="16">
+      <c r="A3" s="22"/>
+      <c r="B3" s="15">
         <v>100</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>1000</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="4" t="s">
         <v>138</v>
       </c>
@@ -6319,18 +5255,18 @@
       <c r="K3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="23"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>141</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -6351,17 +5287,17 @@
       <c r="K4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="23"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="16" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="15" t="s">
         <v>139</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -6379,20 +5315,20 @@
       <c r="K5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>139</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -6407,23 +5343,23 @@
       <c r="K6" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="4" t="s">
         <v>138</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>139</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -6435,16 +5371,16 @@
       <c r="K7" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="4" t="s">
         <v>138</v>
       </c>
@@ -6454,7 +5390,7 @@
       <c r="H8" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>139</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -6463,16 +5399,16 @@
       <c r="K8" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="4" t="s">
         <v>138</v>
       </c>
@@ -6485,22 +5421,22 @@
       <c r="I9" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>139</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="4" t="s">
         <v>138</v>
       </c>
@@ -6516,19 +5452,19 @@
       <c r="J10" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="4" t="s">
         <v>138</v>
       </c>
@@ -6547,55 +5483,55 @@
       <c r="K11" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="24" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>33343</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G12" s="21" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" s="22" t="s">
+      <c r="H12" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="21" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="23">
+      <c r="A13" s="22">
         <v>33310</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
       <c r="F13" s="4" t="s">
         <v>138</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>139</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -6607,18 +5543,18 @@
       <c r="K13" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>33558</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="4" t="s">
         <v>138</v>
       </c>
@@ -6628,7 +5564,7 @@
       <c r="H14" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="15" t="s">
         <v>139</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -6637,18 +5573,18 @@
       <c r="K14" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>33280</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="4" t="s">
         <v>138</v>
       </c>
@@ -6661,24 +5597,24 @@
       <c r="I15" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J15" s="15" t="s">
         <v>139</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="23">
+      <c r="A16" s="22">
         <v>33307</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="4" t="s">
         <v>138</v>
       </c>
@@ -6694,40 +5630,40 @@
       <c r="J16" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="23" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A17" s="26">
+      <c r="A17" s="25">
         <v>8140</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="L17" s="29" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="28" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6738,7 +5674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6751,12 +5687,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>1000</v>
       </c>
     </row>
@@ -6766,7 +5702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C3BC51-A396-415F-9233-1E72E8DB73EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6800,25 +5736,25 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>208</v>
       </c>
       <c r="D2" s="4">
         <v>100</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>207</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{0FF7660A-1307-48C5-B663-8E223C957E8A}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
